--- a/data/option_data/call/ADBE.xlsx
+++ b/data/option_data/call/ADBE.xlsx
@@ -642,19 +642,19 @@
         <v>267</v>
       </c>
       <c r="G2">
-        <v>279.5</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>230</v>
       </c>
       <c r="I2">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0.5254258883666992</v>
+        <v>1E-05</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -680,19 +680,19 @@
         <v>254</v>
       </c>
       <c r="G3">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>240</v>
       </c>
       <c r="I3">
-        <v>280.5</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0.5160723442077637</v>
+        <v>1E-05</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>0.4739737661743164</v>
+        <v>0.5195818305969238</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
@@ -756,19 +756,19 @@
         <v>232.06</v>
       </c>
       <c r="G5">
-        <v>254.5</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>260</v>
       </c>
       <c r="I5">
-        <v>263.5</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>0.4963276686096192</v>
+        <v>1E-05</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
@@ -794,19 +794,19 @@
         <v>222.73</v>
       </c>
       <c r="G6">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>270</v>
       </c>
       <c r="I6">
-        <v>255.5</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
-        <v>0.4900258517456055</v>
+        <v>1E-05</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>0.4519250364685059</v>
+        <v>0.520314245147705</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="K8">
-        <v>0.4614159083557129</v>
+        <v>0.5245256288146973</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -908,19 +908,19 @@
         <v>210</v>
       </c>
       <c r="G9">
-        <v>222.2</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>300</v>
       </c>
       <c r="I9">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9">
-        <v>0.4644066011047364</v>
+        <v>1E-05</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -946,19 +946,19 @@
         <v>204.23</v>
       </c>
       <c r="G10">
-        <v>214.3</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>310</v>
       </c>
       <c r="I10">
-        <v>222.25</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.4514672773742676</v>
+        <v>1E-05</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -984,19 +984,19 @@
         <v>196.59</v>
       </c>
       <c r="G11">
-        <v>206.1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>320</v>
       </c>
       <c r="I11">
-        <v>214.9</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <v>0.4472253764343262</v>
+        <v>1E-05</v>
       </c>
       <c r="L11" t="b">
         <v>1</v>
@@ -1022,19 +1022,19 @@
         <v>165</v>
       </c>
       <c r="G12">
-        <v>198.8</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>330</v>
       </c>
       <c r="I12">
-        <v>207.15</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <v>0.4399622654724121</v>
+        <v>1E-05</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -1060,19 +1060,19 @@
         <v>190.4</v>
       </c>
       <c r="G13">
-        <v>191.3</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>340</v>
       </c>
       <c r="I13">
-        <v>199.8</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
-        <v>0.4345607081604004</v>
+        <v>1E-05</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
@@ -1095,22 +1095,22 @@
         <v>350</v>
       </c>
       <c r="F14">
-        <v>180.4</v>
+        <v>179</v>
       </c>
       <c r="G14">
-        <v>184.5</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>350</v>
       </c>
       <c r="I14">
-        <v>192.4</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>0.4283504431152344</v>
+        <v>1E-05</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
@@ -1136,19 +1136,19 @@
         <v>181.35</v>
       </c>
       <c r="G15">
-        <v>177.25</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>360</v>
       </c>
       <c r="I15">
-        <v>185.85</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>0.4261074235534668</v>
+        <v>1E-05</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
@@ -1174,19 +1174,19 @@
         <v>137.49</v>
       </c>
       <c r="G16">
-        <v>170.5</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>370</v>
       </c>
       <c r="I16">
-        <v>179.35</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>4</v>
       </c>
       <c r="K16">
-        <v>0.4233761276245117</v>
+        <v>1E-05</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
@@ -1209,22 +1209,22 @@
         <v>380</v>
       </c>
       <c r="F17">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G17">
-        <v>163.55</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>380</v>
       </c>
       <c r="I17">
-        <v>172.5</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17">
-        <v>0.4182797430419921</v>
+        <v>1E-05</v>
       </c>
       <c r="L17" t="b">
         <v>1</v>
@@ -1250,19 +1250,19 @@
         <v>133</v>
       </c>
       <c r="G18">
-        <v>157.15</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>390</v>
       </c>
       <c r="I18">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>2</v>
       </c>
       <c r="K18">
-        <v>0.4143353855133056</v>
+        <v>1E-05</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>
@@ -1288,19 +1288,19 @@
         <v>147</v>
       </c>
       <c r="G19">
-        <v>150.55</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>400</v>
       </c>
       <c r="I19">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>2</v>
       </c>
       <c r="K19">
-        <v>0.4120999952697754</v>
+        <v>1E-05</v>
       </c>
       <c r="L19" t="b">
         <v>1</v>
@@ -1326,19 +1326,19 @@
         <v>118.07</v>
       </c>
       <c r="G20">
-        <v>144.65</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>410</v>
       </c>
       <c r="I20">
-        <v>153.5</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20">
-        <v>0.4070264986419677</v>
+        <v>1E-05</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
@@ -1361,22 +1361,22 @@
         <v>420</v>
       </c>
       <c r="F21">
-        <v>134.6</v>
+        <v>133.4</v>
       </c>
       <c r="G21">
-        <v>137.7</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>420</v>
       </c>
       <c r="I21">
-        <v>145.25</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K21">
-        <v>0.3939498471832276</v>
+        <v>1E-05</v>
       </c>
       <c r="L21" t="b">
         <v>1</v>
@@ -1402,19 +1402,19 @@
         <v>129.6</v>
       </c>
       <c r="G22">
-        <v>132.25</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>430</v>
       </c>
       <c r="I22">
-        <v>139.3</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22">
-        <v>0.3904632487487793</v>
+        <v>1E-05</v>
       </c>
       <c r="L22" t="b">
         <v>1</v>
@@ -1452,7 +1452,7 @@
         <v>3</v>
       </c>
       <c r="K23">
-        <v>0.3504169573211668</v>
+        <v>0.3810639286804199</v>
       </c>
       <c r="L23" t="b">
         <v>1</v>
@@ -1478,19 +1478,19 @@
         <v>117.2</v>
       </c>
       <c r="G24">
-        <v>126.85</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>440</v>
       </c>
       <c r="I24">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24">
-        <v>0.3973067472076416</v>
+        <v>1E-05</v>
       </c>
       <c r="L24" t="b">
         <v>1</v>
@@ -1516,19 +1516,19 @@
         <v>120</v>
       </c>
       <c r="G25">
-        <v>125.55</v>
+        <v>118.55</v>
       </c>
       <c r="H25">
         <v>445</v>
       </c>
       <c r="I25">
-        <v>131.35</v>
+        <v>125.3</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25">
-        <v>0.3881820825958252</v>
+        <v>0.3930038117218018</v>
       </c>
       <c r="L25" t="b">
         <v>1</v>
@@ -1554,19 +1554,19 @@
         <v>118</v>
       </c>
       <c r="G26">
-        <v>121.8</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>450</v>
       </c>
       <c r="I26">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26">
-        <v>0.3883194103240967</v>
+        <v>1E-05</v>
       </c>
       <c r="L26" t="b">
         <v>1</v>
@@ -1592,19 +1592,19 @@
         <v>100.24</v>
       </c>
       <c r="G27">
-        <v>120.1</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>455</v>
       </c>
       <c r="I27">
-        <v>127.45</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>2</v>
       </c>
       <c r="K27">
-        <v>0.3914855773925781</v>
+        <v>1E-05</v>
       </c>
       <c r="L27" t="b">
         <v>1</v>
@@ -1630,19 +1630,19 @@
         <v>112.65</v>
       </c>
       <c r="G28">
-        <v>117.3</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>460</v>
       </c>
       <c r="I28">
-        <v>124.35</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28">
-        <v>0.3883117810058594</v>
+        <v>1E-05</v>
       </c>
       <c r="L28" t="b">
         <v>1</v>
@@ -1668,19 +1668,19 @@
         <v>110.1</v>
       </c>
       <c r="G29">
-        <v>114.2</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>465</v>
       </c>
       <c r="I29">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29">
-        <v>0.3840546214294434</v>
+        <v>1E-05</v>
       </c>
       <c r="L29" t="b">
         <v>1</v>
@@ -1703,22 +1703,22 @@
         <v>470</v>
       </c>
       <c r="F30">
-        <v>117.32</v>
+        <v>107.25</v>
       </c>
       <c r="G30">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>470</v>
       </c>
       <c r="I30">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30">
-        <v>0.3888458332824707</v>
+        <v>1E-05</v>
       </c>
       <c r="L30" t="b">
         <v>1</v>
@@ -1744,19 +1744,19 @@
         <v>112.05</v>
       </c>
       <c r="G31">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>475</v>
       </c>
       <c r="I31">
-        <v>115.35</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>7</v>
       </c>
       <c r="K31">
-        <v>0.3793473320770263</v>
+        <v>1E-05</v>
       </c>
       <c r="L31" t="b">
         <v>1</v>
@@ -1782,19 +1782,19 @@
         <v>103.2</v>
       </c>
       <c r="G32">
-        <v>107.45</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>480</v>
       </c>
       <c r="I32">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32">
-        <v>0.3709932286071777</v>
+        <v>1E-05</v>
       </c>
       <c r="L32" t="b">
         <v>1</v>
@@ -1817,22 +1817,22 @@
         <v>485</v>
       </c>
       <c r="F33">
-        <v>99.27</v>
+        <v>100.4</v>
       </c>
       <c r="G33">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>485</v>
       </c>
       <c r="I33">
-        <v>111.2</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>0.3798661257171631</v>
+        <v>1E-05</v>
       </c>
       <c r="L33" t="b">
         <v>1</v>
@@ -1858,19 +1858,19 @@
         <v>100.55</v>
       </c>
       <c r="G34">
-        <v>102.65</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>490</v>
       </c>
       <c r="I34">
-        <v>108.85</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="K34">
-        <v>0.3788666850280761</v>
+        <v>1E-05</v>
       </c>
       <c r="L34" t="b">
         <v>1</v>
@@ -1896,22 +1896,22 @@
         <v>102.5</v>
       </c>
       <c r="G35">
-        <v>99.95</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>495</v>
       </c>
       <c r="I35">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35">
-        <v>0.3833679827880859</v>
+        <v>0.000986552734375</v>
       </c>
       <c r="L35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1931,25 +1931,25 @@
         <v>500</v>
       </c>
       <c r="F36">
-        <v>101</v>
+        <v>93.52</v>
       </c>
       <c r="G36">
-        <v>98.05</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>500</v>
       </c>
       <c r="I36">
-        <v>103.9</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K36">
-        <v>0.375555560913086</v>
+        <v>0.0039162109375</v>
       </c>
       <c r="L36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1972,19 +1972,19 @@
         <v>76.06999999999999</v>
       </c>
       <c r="G37">
-        <v>95.84999999999999</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>505</v>
       </c>
       <c r="I37">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="K37">
-        <v>0.3832764309692382</v>
+        <v>0.0039162109375</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>510</v>
       </c>
       <c r="F38">
-        <v>87.44</v>
+        <v>88.15000000000001</v>
       </c>
       <c r="G38">
-        <v>93.5</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>510</v>
       </c>
       <c r="I38">
-        <v>100.2</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38">
-        <v>0.3763795272827148</v>
+        <v>0.007822421875000001</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         <v>97</v>
       </c>
       <c r="G39">
-        <v>91.34999999999999</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>515</v>
       </c>
       <c r="I39">
-        <v>96.75</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39">
-        <v>0.3707033145141602</v>
+        <v>0.007822421875000001</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>69.05</v>
       </c>
       <c r="G40">
-        <v>89.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>520</v>
       </c>
       <c r="I40">
-        <v>94.84999999999999</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="K40">
-        <v>0.3706193920135498</v>
+        <v>0.007822421875000001</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
@@ -2124,19 +2124,19 @@
         <v>90</v>
       </c>
       <c r="G41">
-        <v>86.95</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>525</v>
       </c>
       <c r="I41">
-        <v>92.45</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
       <c r="K41">
-        <v>0.3685747347259521</v>
+        <v>0.007822421875000001</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -2162,19 +2162,19 @@
         <v>86.75</v>
       </c>
       <c r="G42">
-        <v>85.2</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>530</v>
       </c>
       <c r="I42">
-        <v>90.45</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>7</v>
       </c>
       <c r="K42">
-        <v>0.3678804667663575</v>
+        <v>0.01563484375</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
@@ -2197,22 +2197,22 @@
         <v>540</v>
       </c>
       <c r="F43">
-        <v>85.26000000000001</v>
+        <v>77.06999999999999</v>
       </c>
       <c r="G43">
-        <v>79.75</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>540</v>
       </c>
       <c r="I43">
-        <v>86.45</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="K43">
-        <v>0.3661257235717773</v>
+        <v>0.01563484375</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         <v>71.22</v>
       </c>
       <c r="G44">
-        <v>76.75</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>550</v>
       </c>
       <c r="I44">
-        <v>82.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
       <c r="K44">
-        <v>0.3646227478790284</v>
+        <v>0.01563484375</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
@@ -2276,19 +2276,19 @@
         <v>57.35</v>
       </c>
       <c r="G45">
-        <v>72.34999999999999</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>560</v>
       </c>
       <c r="I45">
-        <v>78.7</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>5</v>
       </c>
       <c r="K45">
-        <v>0.3621203314971924</v>
+        <v>0.01563484375</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
@@ -2314,19 +2314,19 @@
         <v>70.84999999999999</v>
       </c>
       <c r="G46">
-        <v>68.95</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>570</v>
       </c>
       <c r="I46">
-        <v>74.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>2</v>
       </c>
       <c r="K46">
-        <v>0.3597018376159668</v>
+        <v>0.01563484375</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
@@ -2352,19 +2352,19 @@
         <v>70.5</v>
       </c>
       <c r="G47">
-        <v>64.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>580</v>
       </c>
       <c r="I47">
-        <v>69.34999999999999</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
       <c r="K47">
-        <v>0.3505390264129638</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
@@ -2390,19 +2390,19 @@
         <v>65.15000000000001</v>
       </c>
       <c r="G48">
-        <v>62.2</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>590</v>
       </c>
       <c r="I48">
-        <v>68.3</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48">
-        <v>0.3571536453247071</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
@@ -2425,22 +2425,22 @@
         <v>600</v>
       </c>
       <c r="F49">
-        <v>61.77</v>
+        <v>56.25</v>
       </c>
       <c r="G49">
-        <v>58.95</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>600</v>
       </c>
       <c r="I49">
-        <v>64.5</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="K49">
-        <v>0.353422908706665</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
@@ -2466,19 +2466,19 @@
         <v>59.12</v>
       </c>
       <c r="G50">
-        <v>54.85</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>610</v>
       </c>
       <c r="I50">
-        <v>61.45</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>10</v>
       </c>
       <c r="K50">
-        <v>0.3519771529006958</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
@@ -2504,19 +2504,19 @@
         <v>56.02</v>
       </c>
       <c r="G51">
-        <v>51.65</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>620</v>
       </c>
       <c r="I51">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>10</v>
       </c>
       <c r="K51">
-        <v>0.3504856211853026</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
@@ -2542,19 +2542,19 @@
         <v>53.07</v>
       </c>
       <c r="G52">
-        <v>49.75</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>630</v>
       </c>
       <c r="I52">
-        <v>55.8</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>5</v>
       </c>
       <c r="K52">
-        <v>0.3495090684509277</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
@@ -2580,19 +2580,19 @@
         <v>50.32</v>
       </c>
       <c r="G53">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>640</v>
       </c>
       <c r="I53">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <v>5</v>
       </c>
       <c r="K53">
-        <v>0.3477772132110596</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
@@ -2618,19 +2618,19 @@
         <v>35.7</v>
       </c>
       <c r="G54">
-        <v>42.45</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>660</v>
       </c>
       <c r="I54">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
       <c r="K54">
-        <v>0.3446186754608154</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
@@ -2656,19 +2656,19 @@
         <v>37.6</v>
       </c>
       <c r="G55">
-        <v>37.55</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>680</v>
       </c>
       <c r="I55">
-        <v>43.45</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>1</v>
       </c>
       <c r="K55">
-        <v>0.3432148809051513</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
@@ -2694,19 +2694,19 @@
         <v>36.5</v>
       </c>
       <c r="G56">
-        <v>34.15</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>700</v>
       </c>
       <c r="I56">
-        <v>39.35</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K56">
-        <v>0.3413914738464356</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L56" t="b">
         <v>0</v>
@@ -2744,7 +2744,7 @@
         <v>2</v>
       </c>
       <c r="K57">
-        <v>0.2999566464996338</v>
+        <v>0.3123695472717284</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
@@ -2770,19 +2770,19 @@
         <v>24.2</v>
       </c>
       <c r="G58">
-        <v>26.95</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>740</v>
       </c>
       <c r="I58">
-        <v>32.55</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <v>1</v>
       </c>
       <c r="K58">
-        <v>0.3395375495147706</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
@@ -2808,19 +2808,19 @@
         <v>22.5</v>
       </c>
       <c r="G59">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>760</v>
       </c>
       <c r="I59">
-        <v>30.1</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
       <c r="K59">
-        <v>0.34092608543396</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L59" t="b">
         <v>0</v>

--- a/data/option_data/call/ADBE.xlsx
+++ b/data/option_data/call/ADBE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="70">
   <si>
     <t>symbol</t>
   </si>
@@ -581,13 +581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,22 +607,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -642,25 +639,22 @@
         <v>267</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="H2">
         <v>230</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1E-05</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.5103198382568359</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -680,25 +674,22 @@
         <v>254</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>256.3</v>
       </c>
       <c r="H3">
         <v>240</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1E-05</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.5022937954711916</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -724,19 +715,16 @@
         <v>250</v>
       </c>
       <c r="I4">
-        <v>268.45</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0.5195818305969238</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.5616346327209474</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -756,25 +744,22 @@
         <v>232.06</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>239.2</v>
       </c>
       <c r="H5">
         <v>260</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1E-05</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.4817556707763672</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -794,25 +779,22 @@
         <v>222.73</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>231.6</v>
       </c>
       <c r="H6">
         <v>270</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1E-05</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.475240233001709</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -838,19 +820,16 @@
         <v>280</v>
       </c>
       <c r="I7">
-        <v>243.4</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0.520314245147705</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.5242051974487304</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -876,19 +855,16 @@
         <v>290</v>
       </c>
       <c r="I8">
-        <v>237.5</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>0.5245256288146973</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.5253038192749023</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -908,25 +884,22 @@
         <v>210</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>208.25</v>
       </c>
       <c r="H9">
         <v>300</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1E-05</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.4377802804565429</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -946,25 +919,22 @@
         <v>204.23</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>201.45</v>
       </c>
       <c r="H10">
         <v>310</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1E-05</v>
-      </c>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.4382990740966797</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -984,25 +954,22 @@
         <v>196.59</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>193.9</v>
       </c>
       <c r="H11">
         <v>320</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1E-05</v>
-      </c>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.4439600282287597</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1022,25 +989,22 @@
         <v>165</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>186.6</v>
       </c>
       <c r="H12">
         <v>330</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1E-05</v>
-      </c>
-      <c r="L12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.4381617463684083</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1060,25 +1024,22 @@
         <v>190.4</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>178.2</v>
       </c>
       <c r="H13">
         <v>340</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1E-05</v>
-      </c>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.4298763067626954</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1095,28 +1056,25 @@
         <v>350</v>
       </c>
       <c r="F14">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>172.6</v>
       </c>
       <c r="H14">
         <v>350</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>2</v>
-      </c>
-      <c r="K14">
-        <v>1E-05</v>
-      </c>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.4292583319854737</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1136,25 +1094,22 @@
         <v>181.35</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>166.25</v>
       </c>
       <c r="H15">
         <v>360</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1E-05</v>
-      </c>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.4256878110504151</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1174,25 +1129,22 @@
         <v>137.49</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>156.05</v>
       </c>
       <c r="H16">
         <v>370</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>4</v>
-      </c>
-      <c r="K16">
-        <v>1E-05</v>
-      </c>
-      <c r="L16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.4023039506530762</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1212,25 +1164,22 @@
         <v>160</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>153.15</v>
       </c>
       <c r="H17">
         <v>380</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1E-05</v>
-      </c>
-      <c r="L17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.4139996955108642</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1250,25 +1199,22 @@
         <v>133</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>145.95</v>
       </c>
       <c r="H18">
         <v>390</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18">
-        <v>1E-05</v>
-      </c>
-      <c r="L18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.4122144350433349</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1285,28 +1231,25 @@
         <v>400</v>
       </c>
       <c r="F19">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>141.1</v>
       </c>
       <c r="H19">
         <v>400</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19">
-        <v>1E-05</v>
-      </c>
-      <c r="L19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.4076902493286133</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1326,25 +1269,22 @@
         <v>118.07</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>134.85</v>
       </c>
       <c r="H20">
         <v>410</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>1E-05</v>
-      </c>
-      <c r="L20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.3933700189971924</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1361,28 +1301,25 @@
         <v>420</v>
       </c>
       <c r="F21">
-        <v>133.4</v>
+        <v>129.3</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>127.95</v>
       </c>
       <c r="H21">
         <v>420</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>5</v>
-      </c>
-      <c r="K21">
-        <v>1E-05</v>
-      </c>
-      <c r="L21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.3966429965209961</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1402,25 +1339,22 @@
         <v>129.6</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>121.95</v>
       </c>
       <c r="H22">
         <v>430</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1E-05</v>
-      </c>
-      <c r="L22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.3885177725982666</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1437,28 +1371,25 @@
         <v>435</v>
       </c>
       <c r="F23">
-        <v>115.75</v>
+        <v>123.15</v>
       </c>
       <c r="G23">
-        <v>120.9</v>
+        <v>119.75</v>
       </c>
       <c r="H23">
         <v>435</v>
       </c>
       <c r="I23">
-        <v>127.15</v>
+        <v>5</v>
       </c>
       <c r="J23">
-        <v>3</v>
-      </c>
-      <c r="K23">
-        <v>0.3810639286804199</v>
-      </c>
-      <c r="L23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.3936904503631592</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1478,25 +1409,22 @@
         <v>117.2</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>118.35</v>
       </c>
       <c r="H24">
         <v>440</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>1E-05</v>
-      </c>
-      <c r="L24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.3853821228027343</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1516,25 +1444,22 @@
         <v>120</v>
       </c>
       <c r="G25">
-        <v>118.55</v>
+        <v>115.4</v>
       </c>
       <c r="H25">
         <v>445</v>
       </c>
       <c r="I25">
-        <v>125.3</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>0.3930038117218018</v>
-      </c>
-      <c r="L25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>0.3750367672729492</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1554,25 +1479,22 @@
         <v>118</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>112.95</v>
       </c>
       <c r="H26">
         <v>450</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>1E-05</v>
-      </c>
-      <c r="L26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>0.3839172937011719</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1592,25 +1514,22 @@
         <v>100.24</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>110.2</v>
       </c>
       <c r="H27">
         <v>455</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27">
-        <v>2</v>
-      </c>
-      <c r="K27">
-        <v>1E-05</v>
-      </c>
-      <c r="L27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>0.3858627698516846</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1630,25 +1549,22 @@
         <v>112.65</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>106.35</v>
       </c>
       <c r="H28">
         <v>460</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>1E-05</v>
-      </c>
-      <c r="L28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>0.3814377652740478</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1668,25 +1584,22 @@
         <v>110.1</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>105.3</v>
       </c>
       <c r="H29">
         <v>465</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>1E-05</v>
-      </c>
-      <c r="L29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>0.379889013671875</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1703,28 +1616,25 @@
         <v>470</v>
       </c>
       <c r="F30">
-        <v>107.25</v>
+        <v>102</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>101.95</v>
       </c>
       <c r="H30">
         <v>470</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>1E-05</v>
-      </c>
-      <c r="L30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>0.3774171145629882</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1744,25 +1654,22 @@
         <v>112.05</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>100.95</v>
       </c>
       <c r="H31">
         <v>475</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J31">
-        <v>7</v>
-      </c>
-      <c r="K31">
-        <v>1E-05</v>
-      </c>
-      <c r="L31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>0.3763871566009521</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1779,28 +1686,25 @@
         <v>480</v>
       </c>
       <c r="F32">
-        <v>103.2</v>
+        <v>97.8</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="H32">
         <v>480</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>1E-05</v>
-      </c>
-      <c r="L32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>0.3781190118408203</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1817,28 +1721,25 @@
         <v>485</v>
       </c>
       <c r="F33">
-        <v>100.4</v>
+        <v>98.23999999999999</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>95.75</v>
       </c>
       <c r="H33">
         <v>485</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>1E-05</v>
-      </c>
-      <c r="L33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>0.3754487504577637</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1858,25 +1759,22 @@
         <v>100.55</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>92.5</v>
       </c>
       <c r="H34">
         <v>490</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>1E-05</v>
-      </c>
-      <c r="L34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>0.3734269811248779</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1893,28 +1791,25 @@
         <v>495</v>
       </c>
       <c r="F35">
-        <v>102.5</v>
+        <v>93.76000000000001</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>91.75</v>
       </c>
       <c r="H35">
         <v>495</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>0.000986552734375</v>
-      </c>
-      <c r="L35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>0.3760514665985107</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1931,28 +1826,25 @@
         <v>500</v>
       </c>
       <c r="F36">
-        <v>93.52</v>
+        <v>90</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="H36">
         <v>500</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36">
-        <v>5</v>
-      </c>
-      <c r="K36">
-        <v>0.0039162109375</v>
-      </c>
-      <c r="L36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>0.3712907720184326</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1972,25 +1864,22 @@
         <v>76.06999999999999</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="H37">
         <v>505</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <v>0.0039162109375</v>
-      </c>
-      <c r="L37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>0.3702074088287354</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2010,25 +1899,22 @@
         <v>88.15000000000001</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>84.2</v>
       </c>
       <c r="H38">
         <v>510</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>0.007822421875000001</v>
-      </c>
-      <c r="L38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>0.3705125815582275</v>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2048,25 +1934,22 @@
         <v>97</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>83.7</v>
       </c>
       <c r="H39">
         <v>515</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>0.007822421875000001</v>
-      </c>
-      <c r="L39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>0.3684221483612061</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2086,25 +1969,22 @@
         <v>69.05</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>81.55</v>
       </c>
       <c r="H40">
         <v>520</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>0.007822421875000001</v>
-      </c>
-      <c r="L40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>0.3708940474700927</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2124,25 +2004,22 @@
         <v>90</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>79.25</v>
       </c>
       <c r="H41">
         <v>525</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>0.007822421875000001</v>
-      </c>
-      <c r="L41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>0.3659349906158448</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2162,25 +2039,22 @@
         <v>86.75</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="H42">
         <v>530</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J42">
-        <v>7</v>
-      </c>
-      <c r="K42">
-        <v>0.01563484375</v>
-      </c>
-      <c r="L42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>0.364966067199707</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2200,25 +2074,22 @@
         <v>77.06999999999999</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>72.45</v>
       </c>
       <c r="H43">
         <v>540</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>0.01563484375</v>
-      </c>
-      <c r="L43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>0.3632342119598388</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2238,25 +2109,22 @@
         <v>71.22</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>68.95</v>
       </c>
       <c r="H44">
         <v>550</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>0.01563484375</v>
-      </c>
-      <c r="L44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>0.3621279608154296</v>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2276,25 +2144,22 @@
         <v>57.35</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>67.05</v>
       </c>
       <c r="H45">
         <v>560</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J45">
-        <v>5</v>
-      </c>
-      <c r="K45">
-        <v>0.01563484375</v>
-      </c>
-      <c r="L45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>0.3598010187530517</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2311,28 +2176,25 @@
         <v>570</v>
       </c>
       <c r="F46">
-        <v>70.84999999999999</v>
+        <v>62.65</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>61.35</v>
       </c>
       <c r="H46">
         <v>570</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J46">
-        <v>2</v>
-      </c>
-      <c r="K46">
-        <v>0.01563484375</v>
-      </c>
-      <c r="L46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>0.3631655480957031</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2352,25 +2214,22 @@
         <v>70.5</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>60.4</v>
       </c>
       <c r="H47">
         <v>580</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>0.3571231280517578</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2390,25 +2249,22 @@
         <v>65.15000000000001</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>56.7</v>
       </c>
       <c r="H48">
         <v>590</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>0.3594348114776611</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2425,28 +2281,25 @@
         <v>600</v>
       </c>
       <c r="F49">
-        <v>56.25</v>
+        <v>51.85</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>54.25</v>
       </c>
       <c r="H49">
         <v>600</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="K49">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>0.3532169171142577</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2466,25 +2319,22 @@
         <v>59.12</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>51.95</v>
       </c>
       <c r="H50">
         <v>610</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J50">
-        <v>10</v>
-      </c>
-      <c r="K50">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>0.3535602364349364</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2501,28 +2351,25 @@
         <v>620</v>
       </c>
       <c r="F51">
-        <v>56.02</v>
+        <v>49.95</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>48.45</v>
       </c>
       <c r="H51">
         <v>620</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>10</v>
-      </c>
-      <c r="K51">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>0.3525531664276123</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2542,25 +2389,22 @@
         <v>53.07</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="H52">
         <v>630</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J52">
-        <v>5</v>
-      </c>
-      <c r="K52">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>0.3507450180053711</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2580,25 +2424,22 @@
         <v>50.32</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>43.95</v>
       </c>
       <c r="H53">
         <v>640</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J53">
-        <v>5</v>
-      </c>
-      <c r="K53">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>0.3522556230163574</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2618,25 +2459,22 @@
         <v>35.7</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>39.15</v>
       </c>
       <c r="H54">
         <v>660</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>0.3484562225341796</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2656,25 +2494,22 @@
         <v>37.6</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>35.1</v>
       </c>
       <c r="H55">
         <v>680</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>0.3453282020568847</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2694,25 +2529,22 @@
         <v>36.5</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>30.75</v>
       </c>
       <c r="H56">
         <v>700</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>0.3459995820617676</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2738,19 +2570,16 @@
         <v>720</v>
       </c>
       <c r="I57">
-        <v>26.35</v>
+        <v>2</v>
       </c>
       <c r="J57">
-        <v>2</v>
-      </c>
-      <c r="K57">
-        <v>0.3123695472717284</v>
-      </c>
-      <c r="L57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>0.318968907546997</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2767,28 +2596,25 @@
         <v>740</v>
       </c>
       <c r="F58">
-        <v>24.2</v>
+        <v>26</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>24.15</v>
       </c>
       <c r="H58">
         <v>740</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>0.3443287613677979</v>
+      </c>
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2805,24 +2631,21 @@
         <v>760</v>
       </c>
       <c r="F59">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="H59">
         <v>760</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J59">
-        <v>1</v>
-      </c>
-      <c r="K59">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L59" t="b">
+        <v>0.3393468165588379</v>
+      </c>
+      <c r="K59" t="b">
         <v>0</v>
       </c>
     </row>
